--- a/data/Resume_for_analytics_v4.xlsx
+++ b/data/Resume_for_analytics_v4.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edpi/Documents/Git Repos/Analytics_resume/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edpi/Documents/Git Repos/Analytics_resume/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5662811A-18C4-3942-BFAF-1F400556C874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5026CC-FD76-F148-848F-5FD070580FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{98D999EE-BA1D-1548-A71A-707BD42C34C4}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17420" activeTab="3" xr2:uid="{98D999EE-BA1D-1548-A71A-707BD42C34C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="6" r:id="rId1"/>
     <sheet name="Experience" sheetId="1" r:id="rId2"/>
     <sheet name="Skills" sheetId="2" r:id="rId3"/>
     <sheet name="Certifications" sheetId="3" r:id="rId4"/>
-    <sheet name="Languages" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="298">
   <si>
     <t>Role</t>
   </si>
@@ -292,24 +291,6 @@
     <t>The Complete dbt (Data Build Tool) Bootcamp: Zero to Hero</t>
   </si>
   <si>
-    <t xml:space="preserve">Language </t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>Native</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
     <t>104/110</t>
   </si>
   <si>
@@ -944,6 +925,30 @@
   </si>
   <si>
     <t>Paris, France</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-bcc8c077-735f-43e3-8632-add3bd582fdd/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-c1f8334b-6496-436a-8b61-1b0947c1e91b/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-77d1d78e-1049-4115-a51d-af567fd34ce4/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-eb5a14cb-df46-4f58-a649-e19e5a8d892a/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-abc475ae-1405-4069-a2e8-4fc57e22a708/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-0a04cdf0-1a5f-4f32-8691-83e1fb90ac6e/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-a083c974-502e-45b7-857e-d148fc020979/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-d49aa702-9c8d-48e7-9a1a-a30fd798cbdd/</t>
   </si>
 </sst>
 </file>
@@ -1404,21 +1409,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B2" s="10">
         <v>41518</v>
@@ -1434,7 +1439,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B3" s="10">
         <v>41548</v>
@@ -1450,7 +1455,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B4" s="10">
         <v>41579</v>
@@ -1466,7 +1471,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B5" s="10">
         <v>41609</v>
@@ -1482,7 +1487,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B6" s="10">
         <v>41640</v>
@@ -1498,7 +1503,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B7" s="10">
         <v>41671</v>
@@ -1514,7 +1519,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B8" s="10">
         <v>41699</v>
@@ -1530,7 +1535,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B9" s="10">
         <v>41730</v>
@@ -1546,7 +1551,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B10" s="10">
         <v>41760</v>
@@ -1562,7 +1567,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B11" s="10">
         <v>41791</v>
@@ -1578,7 +1583,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B12" s="10">
         <v>41821</v>
@@ -1594,7 +1599,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B13" s="10">
         <v>41852</v>
@@ -1610,7 +1615,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B14" s="10">
         <v>41883</v>
@@ -1626,7 +1631,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B15" s="10">
         <v>41913</v>
@@ -1642,7 +1647,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B16" s="10">
         <v>41944</v>
@@ -1658,7 +1663,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B17" s="10">
         <v>41974</v>
@@ -1674,7 +1679,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B18" s="10">
         <v>42005</v>
@@ -1690,7 +1695,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B19" s="10">
         <v>42036</v>
@@ -1706,7 +1711,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B20" s="10">
         <v>42064</v>
@@ -1722,7 +1727,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B21" s="10">
         <v>42095</v>
@@ -1738,7 +1743,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B22" s="10">
         <v>42125</v>
@@ -1754,7 +1759,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B23" s="10">
         <v>42156</v>
@@ -1770,7 +1775,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B24" s="10">
         <v>42186</v>
@@ -1786,7 +1791,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B25" s="10">
         <v>42217</v>
@@ -1802,7 +1807,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B26" s="10">
         <v>42248</v>
@@ -1818,7 +1823,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B27" s="10">
         <v>42278</v>
@@ -1834,7 +1839,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B28" s="10">
         <v>42309</v>
@@ -1850,7 +1855,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B29" s="10">
         <v>42339</v>
@@ -1866,7 +1871,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B30" s="10">
         <v>42370</v>
@@ -1882,7 +1887,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10">
         <v>42401</v>
@@ -1898,7 +1903,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B32" s="10">
         <v>42430</v>
@@ -1914,7 +1919,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B33" s="10">
         <v>42461</v>
@@ -1930,7 +1935,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B34" s="10">
         <v>42491</v>
@@ -1946,7 +1951,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B35" s="10">
         <v>42522</v>
@@ -1962,7 +1967,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B36" s="10">
         <v>42552</v>
@@ -1978,7 +1983,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B37" s="10">
         <v>42583</v>
@@ -1994,7 +1999,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B38" s="10">
         <v>42614</v>
@@ -2010,7 +2015,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B39" s="10">
         <v>42644</v>
@@ -2026,7 +2031,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B40" s="10">
         <v>42675</v>
@@ -2042,7 +2047,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B41" s="10">
         <v>42705</v>
@@ -2058,7 +2063,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B42" s="10">
         <v>42736</v>
@@ -2074,7 +2079,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B43" s="10">
         <v>42767</v>
@@ -2090,7 +2095,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B44" s="10">
         <v>42795</v>
@@ -2106,7 +2111,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B45" s="10">
         <v>42826</v>
@@ -2122,7 +2127,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B46" s="10">
         <v>42856</v>
@@ -2138,7 +2143,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B47" s="10">
         <v>42887</v>
@@ -2154,7 +2159,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B48" s="10">
         <v>42917</v>
@@ -2170,7 +2175,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B49" s="10">
         <v>42948</v>
@@ -2186,7 +2191,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B50" s="10">
         <v>42979</v>
@@ -2202,7 +2207,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B51" s="10">
         <v>43009</v>
@@ -2218,7 +2223,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B52" s="10">
         <v>43040</v>
@@ -2234,7 +2239,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B53" s="10">
         <v>43070</v>
@@ -2250,7 +2255,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B54" s="10">
         <v>43101</v>
@@ -2266,7 +2271,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B55" s="10">
         <v>43132</v>
@@ -2282,7 +2287,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B56" s="10">
         <v>43160</v>
@@ -2298,7 +2303,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B57" s="10">
         <v>43191</v>
@@ -2314,7 +2319,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B58" s="10">
         <v>43221</v>
@@ -2330,7 +2335,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B59" s="10">
         <v>43252</v>
@@ -2346,7 +2351,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B60" s="10">
         <v>43282</v>
@@ -2362,7 +2367,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B61" s="10">
         <v>43313</v>
@@ -2378,7 +2383,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B62" s="10">
         <v>43344</v>
@@ -2394,7 +2399,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B63" s="10">
         <v>43374</v>
@@ -2410,7 +2415,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B64" s="10">
         <v>43405</v>
@@ -2426,7 +2431,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B65" s="10">
         <v>43435</v>
@@ -2442,7 +2447,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B66" s="10">
         <v>43466</v>
@@ -2458,7 +2463,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B67" s="10">
         <v>43497</v>
@@ -2474,7 +2479,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B68" s="10">
         <v>43525</v>
@@ -2490,7 +2495,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B69" s="10">
         <v>43556</v>
@@ -2506,7 +2511,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B70" s="10">
         <v>43586</v>
@@ -2522,7 +2527,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B71" s="10">
         <v>43617</v>
@@ -2538,7 +2543,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B72" s="10">
         <v>43647</v>
@@ -2554,7 +2559,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B73" s="10">
         <v>43678</v>
@@ -2570,7 +2575,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B74" s="10">
         <v>43709</v>
@@ -2586,7 +2591,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B75" s="10">
         <v>43739</v>
@@ -2602,7 +2607,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B76" s="10">
         <v>43770</v>
@@ -2618,7 +2623,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B77" s="10">
         <v>43800</v>
@@ -2634,7 +2639,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B78" s="10">
         <v>43831</v>
@@ -2650,7 +2655,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B79" s="10">
         <v>43862</v>
@@ -2666,7 +2671,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B80" s="10">
         <v>43891</v>
@@ -2682,7 +2687,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B81" s="10">
         <v>43922</v>
@@ -2698,7 +2703,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B82" s="10">
         <v>43952</v>
@@ -2714,7 +2719,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B83" s="10">
         <v>43983</v>
@@ -2730,7 +2735,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B84" s="10">
         <v>44013</v>
@@ -2746,7 +2751,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B85" s="10">
         <v>44044</v>
@@ -2762,7 +2767,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B86" s="10">
         <v>44075</v>
@@ -2778,7 +2783,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B87" s="10">
         <v>44105</v>
@@ -2794,7 +2799,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B88" s="10">
         <v>44136</v>
@@ -2810,7 +2815,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B89" s="10">
         <v>44166</v>
@@ -2826,7 +2831,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B90" s="10">
         <v>44197</v>
@@ -2842,7 +2847,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B91" s="10">
         <v>44228</v>
@@ -2858,7 +2863,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B92" s="10">
         <v>44256</v>
@@ -2874,7 +2879,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B93" s="10">
         <v>44287</v>
@@ -2890,7 +2895,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B94" s="10">
         <v>44317</v>
@@ -2906,7 +2911,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B95" s="10">
         <v>44348</v>
@@ -2922,7 +2927,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B96" s="10">
         <v>44378</v>
@@ -2938,7 +2943,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B97" s="10">
         <v>44409</v>
@@ -2954,7 +2959,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B98" s="10">
         <v>44440</v>
@@ -2970,7 +2975,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B99" s="10">
         <v>44470</v>
@@ -2986,7 +2991,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B100" s="10">
         <v>44501</v>
@@ -3002,7 +3007,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B101" s="10">
         <v>44531</v>
@@ -3018,7 +3023,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B102" s="10">
         <v>44562</v>
@@ -3034,7 +3039,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B103" s="10">
         <v>44593</v>
@@ -3050,7 +3055,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B104" s="10">
         <v>44621</v>
@@ -3066,7 +3071,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B105" s="10">
         <v>44652</v>
@@ -3082,7 +3087,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B106" s="10">
         <v>44682</v>
@@ -3098,7 +3103,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B107" s="10">
         <v>44713</v>
@@ -3114,7 +3119,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B108" s="10">
         <v>44743</v>
@@ -3130,7 +3135,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B109" s="10">
         <v>44774</v>
@@ -3146,7 +3151,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B110" s="10">
         <v>44805</v>
@@ -3162,7 +3167,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B111" s="10">
         <v>44835</v>
@@ -3178,7 +3183,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B112" s="10">
         <v>44866</v>
@@ -3194,7 +3199,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B113" s="10">
         <v>44896</v>
@@ -3210,7 +3215,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B114" s="10">
         <v>44927</v>
@@ -3226,7 +3231,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B115" s="10">
         <v>44958</v>
@@ -3242,7 +3247,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B116" s="10">
         <v>44986</v>
@@ -3258,7 +3263,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B117" s="10">
         <v>45017</v>
@@ -3274,7 +3279,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B118" s="10">
         <v>45047</v>
@@ -3290,7 +3295,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B119" s="10">
         <v>45078</v>
@@ -3306,7 +3311,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B120" s="10">
         <v>45108</v>
@@ -3322,7 +3327,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B121" s="10">
         <v>45139</v>
@@ -3338,7 +3343,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B122" s="10">
         <v>45170</v>
@@ -3354,7 +3359,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B123" s="10">
         <v>45200</v>
@@ -3370,7 +3375,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B124" s="10">
         <v>45231</v>
@@ -3386,7 +3391,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B125" s="10">
         <v>45261</v>
@@ -3402,7 +3407,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B126" s="10">
         <v>45292</v>
@@ -3418,7 +3423,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B127" s="10">
         <v>45323</v>
@@ -3434,7 +3439,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B128" s="10">
         <v>45352</v>
@@ -3450,7 +3455,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B129" s="10">
         <v>45383</v>
@@ -3466,7 +3471,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B130" s="10">
         <v>45413</v>
@@ -3482,7 +3487,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B131" s="10">
         <v>45444</v>
@@ -3498,7 +3503,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B132" s="10">
         <v>45474</v>
@@ -3514,7 +3519,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B133" s="10">
         <v>45505</v>
@@ -3530,7 +3535,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B134" s="10">
         <v>45536</v>
@@ -3546,7 +3551,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B135" s="10">
         <v>45566</v>
@@ -3562,7 +3567,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B136" s="10">
         <v>45597</v>
@@ -3578,7 +3583,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B137" s="10">
         <v>45627</v>
@@ -3594,7 +3599,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B138" s="10">
         <v>45658</v>
@@ -3610,7 +3615,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B139" s="10">
         <v>45689</v>
@@ -3626,7 +3631,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B140" s="10">
         <v>45717</v>
@@ -3642,7 +3647,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B141" s="10">
         <v>45748</v>
@@ -3658,7 +3663,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B142" s="10">
         <v>45778</v>
@@ -3674,7 +3679,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B143" s="10">
         <v>45809</v>
@@ -3690,7 +3695,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B144" s="10">
         <v>45839</v>
@@ -3706,7 +3711,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B145" s="10">
         <v>45870</v>
@@ -3722,7 +3727,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B146" s="10">
         <v>45901</v>
@@ -3738,7 +3743,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B147" s="10">
         <v>45931</v>
@@ -3754,7 +3759,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B148" s="10">
         <v>45962</v>
@@ -3770,7 +3775,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B149" s="10">
         <v>45992</v>
@@ -3786,7 +3791,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B150" s="10">
         <v>46023</v>
@@ -3802,7 +3807,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B151" s="10">
         <v>46054</v>
@@ -3818,7 +3823,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B152" s="10">
         <v>46082</v>
@@ -3834,7 +3839,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B153" s="10">
         <v>46113</v>
@@ -3850,7 +3855,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B154" s="10">
         <v>46143</v>
@@ -3866,7 +3871,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B155" s="10">
         <v>46174</v>
@@ -3882,7 +3887,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B156" s="10">
         <v>46204</v>
@@ -3898,7 +3903,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B157" s="10">
         <v>46235</v>
@@ -3914,7 +3919,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B158" s="10">
         <v>46266</v>
@@ -3930,7 +3935,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B159" s="10">
         <v>46296</v>
@@ -3946,7 +3951,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B160" s="10">
         <v>46327</v>
@@ -3962,7 +3967,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B161" s="10">
         <v>46357</v>
@@ -3978,7 +3983,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B162" s="10">
         <v>46388</v>
@@ -3994,7 +3999,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B163" s="10">
         <v>46419</v>
@@ -4010,7 +4015,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B164" s="10">
         <v>46447</v>
@@ -4026,7 +4031,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B165" s="10">
         <v>46478</v>
@@ -4042,7 +4047,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B166" s="10">
         <v>46508</v>
@@ -4058,7 +4063,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B167" s="10">
         <v>46539</v>
@@ -4074,7 +4079,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B168" s="10">
         <v>46569</v>
@@ -4090,7 +4095,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B169" s="10">
         <v>46600</v>
@@ -4106,7 +4111,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B170" s="10">
         <v>46631</v>
@@ -4122,7 +4127,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B171" s="10">
         <v>46661</v>
@@ -4138,7 +4143,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B172" s="10">
         <v>46692</v>
@@ -4154,7 +4159,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B173" s="10">
         <v>46722</v>
@@ -4170,7 +4175,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B174" s="10">
         <v>46753</v>
@@ -4186,7 +4191,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B175" s="10">
         <v>46784</v>
@@ -4202,7 +4207,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B176" s="10">
         <v>46813</v>
@@ -4218,7 +4223,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B177" s="10">
         <v>46844</v>
@@ -4234,7 +4239,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B178" s="10">
         <v>46874</v>
@@ -4250,7 +4255,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B179" s="10">
         <v>46905</v>
@@ -4266,7 +4271,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B180" s="10">
         <v>46935</v>
@@ -4282,7 +4287,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B181" s="10">
         <v>46966</v>
@@ -4298,7 +4303,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B182" s="10">
         <v>46997</v>
@@ -4314,7 +4319,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B183" s="10">
         <v>47027</v>
@@ -4330,7 +4335,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B184" s="10">
         <v>47058</v>
@@ -4346,7 +4351,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B185" s="10">
         <v>47088</v>
@@ -4371,7 +4376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554B214A-8729-7640-BC32-D177BB2B55C2}">
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4396,16 +4401,16 @@
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -4417,10 +4422,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -4431,13 +4436,13 @@
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D2" s="10">
         <v>41518</v>
@@ -4446,10 +4451,10 @@
         <v>42614</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -4463,21 +4468,21 @@
         <v>9.189982</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D3" s="10">
         <v>42979</v>
@@ -4486,13 +4491,13 @@
         <v>43282</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I3" s="13" t="str">
         <f>"42.596796"</f>
@@ -4503,18 +4508,18 @@
         <v>-5.572945</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4" s="10">
         <v>42614</v>
@@ -4523,10 +4528,10 @@
         <v>43525</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>4</v>
@@ -4540,15 +4545,15 @@
         <v>9.189982</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -4588,7 +4593,7 @@
     </row>
     <row r="6" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -4628,7 +4633,7 @@
     </row>
     <row r="7" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -4668,7 +4673,7 @@
     </row>
     <row r="8" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
@@ -4689,7 +4694,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>"48.8575"</f>
@@ -4708,7 +4713,7 @@
     </row>
     <row r="9" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -4929,7 +4934,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
@@ -4941,7 +4946,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4949,10 +4954,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>31</v>
@@ -4966,10 +4971,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>31</v>
@@ -5629,7 +5634,7 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -5650,8 +5655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31DC131-E60B-9246-A7B1-E001E7A735FF}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5665,7 +5670,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>
@@ -5741,6 +5746,9 @@
       <c r="D5" t="s">
         <v>69</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -5755,6 +5763,9 @@
       <c r="D6" t="s">
         <v>58</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -5769,6 +5780,9 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -5783,6 +5797,9 @@
       <c r="D8" t="s">
         <v>73</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -5797,6 +5814,9 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -5811,6 +5831,9 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -5825,6 +5848,9 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -5838,71 +5864,24 @@
       </c>
       <c r="D12" t="s">
         <v>73</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{48C6B5B8-0C44-4C4D-9DAC-146EDC04258D}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{EC53445A-087B-B34D-A74B-B7D7FA594CE2}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{FF785A33-1824-424C-A9B6-8AC42F049984}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{738466F2-98E4-BF47-AA31-05D63A948383}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{25688EDC-3474-B04F-8BAB-2288E68D2C07}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{2A51F163-7EBA-C248-8ACC-FB173302AE0E}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{D3831E61-7923-0A43-8CB5-A33A9F43EF13}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{95DAE6A9-3683-FF40-B26C-5315023C1ACB}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{FEE9E52A-1E30-174C-822B-AC8B1F8DCD65}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{9529A0FB-8383-C149-B98B-917FD241929B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356C4222-DFF4-F54F-A829-5E20D7C332F8}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Resume_for_analytics_v4.xlsx
+++ b/data/Resume_for_analytics_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edpi/Documents/Git Repos/Analytics_resume/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5026CC-FD76-F148-848F-5FD070580FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C8453F-726B-6240-8189-66D39D1039EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17420" activeTab="3" xr2:uid="{98D999EE-BA1D-1548-A71A-707BD42C34C4}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17420" xr2:uid="{98D999EE-BA1D-1548-A71A-707BD42C34C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="299">
   <si>
     <t>Role</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t>https://www.udemy.com/certificate/UC-d49aa702-9c8d-48e7-9a1a-a30fd798cbdd/</t>
+  </si>
+  <si>
+    <t>Year_Issued</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70A0BB-68AC-8147-BE8F-1412B640D67D}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5653,10 +5656,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31DC131-E60B-9246-A7B1-E001E7A735FF}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5665,10 +5668,11 @@
     <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="84.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -5682,10 +5686,13 @@
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5698,11 +5705,14 @@
       <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2">
+        <v>2021</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -5715,11 +5725,14 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5732,8 +5745,11 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5746,11 +5762,14 @@
       <c r="D5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5763,11 +5782,14 @@
       <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6">
+        <v>2021</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5780,11 +5802,14 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5797,11 +5822,14 @@
       <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8">
+        <v>2024</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5814,11 +5842,14 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9">
+        <v>2022</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5831,11 +5862,14 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5848,11 +5882,14 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11">
+        <v>2024</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5865,22 +5902,25 @@
       <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12">
+        <v>2025</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{48C6B5B8-0C44-4C4D-9DAC-146EDC04258D}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{EC53445A-087B-B34D-A74B-B7D7FA594CE2}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{FF785A33-1824-424C-A9B6-8AC42F049984}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{738466F2-98E4-BF47-AA31-05D63A948383}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{25688EDC-3474-B04F-8BAB-2288E68D2C07}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{2A51F163-7EBA-C248-8ACC-FB173302AE0E}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{D3831E61-7923-0A43-8CB5-A33A9F43EF13}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{95DAE6A9-3683-FF40-B26C-5315023C1ACB}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{FEE9E52A-1E30-174C-822B-AC8B1F8DCD65}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{9529A0FB-8383-C149-B98B-917FD241929B}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{48C6B5B8-0C44-4C4D-9DAC-146EDC04258D}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{EC53445A-087B-B34D-A74B-B7D7FA594CE2}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{FF785A33-1824-424C-A9B6-8AC42F049984}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{738466F2-98E4-BF47-AA31-05D63A948383}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{25688EDC-3474-B04F-8BAB-2288E68D2C07}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{2A51F163-7EBA-C248-8ACC-FB173302AE0E}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{D3831E61-7923-0A43-8CB5-A33A9F43EF13}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{95DAE6A9-3683-FF40-B26C-5315023C1ACB}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{FEE9E52A-1E30-174C-822B-AC8B1F8DCD65}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{9529A0FB-8383-C149-B98B-917FD241929B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Resume_for_analytics_v4.xlsx
+++ b/data/Resume_for_analytics_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edpi/Documents/Git Repos/Analytics_resume/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C8453F-726B-6240-8189-66D39D1039EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B2876-C823-9448-94C1-B15994A5197C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17420" xr2:uid="{98D999EE-BA1D-1548-A71A-707BD42C34C4}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17420" activeTab="2" xr2:uid="{98D999EE-BA1D-1548-A71A-707BD42C34C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="308">
   <si>
     <t>Role</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Azure DevOps</t>
   </si>
   <si>
-    <t>Git/GitHub</t>
-  </si>
-  <si>
     <t>AWS SageMaker</t>
   </si>
   <si>
@@ -918,9 +915,6 @@
     <t>MS Office</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
@@ -952,6 +946,39 @@
   </si>
   <si>
     <t>Year_Issued</t>
+  </si>
+  <si>
+    <t>Gretl</t>
+  </si>
+  <si>
+    <t>General IT</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>SAP HANA</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>AWS Redshift</t>
+  </si>
+  <si>
+    <t>Oracle Database</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>GitHub/GitLab</t>
+  </si>
+  <si>
+    <t>git</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70A0BB-68AC-8147-BE8F-1412B640D67D}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A161" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1412,21 +1439,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="10">
         <v>41518</v>
@@ -1442,7 +1469,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="10">
         <v>41548</v>
@@ -1458,7 +1485,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="10">
         <v>41579</v>
@@ -1474,7 +1501,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="10">
         <v>41609</v>
@@ -1490,7 +1517,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="10">
         <v>41640</v>
@@ -1506,7 +1533,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="10">
         <v>41671</v>
@@ -1522,7 +1549,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="10">
         <v>41699</v>
@@ -1538,7 +1565,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="10">
         <v>41730</v>
@@ -1554,7 +1581,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="10">
         <v>41760</v>
@@ -1570,7 +1597,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="10">
         <v>41791</v>
@@ -1586,7 +1613,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="10">
         <v>41821</v>
@@ -1602,7 +1629,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="10">
         <v>41852</v>
@@ -1618,7 +1645,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="10">
         <v>41883</v>
@@ -1634,7 +1661,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="10">
         <v>41913</v>
@@ -1650,7 +1677,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="10">
         <v>41944</v>
@@ -1666,7 +1693,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="10">
         <v>41974</v>
@@ -1682,7 +1709,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="10">
         <v>42005</v>
@@ -1698,7 +1725,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="10">
         <v>42036</v>
@@ -1714,7 +1741,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="10">
         <v>42064</v>
@@ -1730,7 +1757,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="10">
         <v>42095</v>
@@ -1746,7 +1773,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="10">
         <v>42125</v>
@@ -1762,7 +1789,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="10">
         <v>42156</v>
@@ -1778,7 +1805,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="10">
         <v>42186</v>
@@ -1794,7 +1821,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="10">
         <v>42217</v>
@@ -1810,7 +1837,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="10">
         <v>42248</v>
@@ -1826,7 +1853,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="10">
         <v>42278</v>
@@ -1842,7 +1869,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="10">
         <v>42309</v>
@@ -1858,7 +1885,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="10">
         <v>42339</v>
@@ -1874,7 +1901,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="10">
         <v>42370</v>
@@ -1890,7 +1917,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="10">
         <v>42401</v>
@@ -1906,7 +1933,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="10">
         <v>42430</v>
@@ -1922,7 +1949,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="10">
         <v>42461</v>
@@ -1938,7 +1965,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="10">
         <v>42491</v>
@@ -1954,7 +1981,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" s="10">
         <v>42522</v>
@@ -1970,7 +1997,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" s="10">
         <v>42552</v>
@@ -1986,7 +2013,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="10">
         <v>42583</v>
@@ -2002,7 +2029,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="10">
         <v>42614</v>
@@ -2018,7 +2045,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" s="10">
         <v>42644</v>
@@ -2034,7 +2061,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" s="10">
         <v>42675</v>
@@ -2050,7 +2077,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="10">
         <v>42705</v>
@@ -2066,7 +2093,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="10">
         <v>42736</v>
@@ -2082,7 +2109,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" s="10">
         <v>42767</v>
@@ -2098,7 +2125,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="10">
         <v>42795</v>
@@ -2114,7 +2141,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B45" s="10">
         <v>42826</v>
@@ -2130,7 +2157,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="10">
         <v>42856</v>
@@ -2146,7 +2173,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" s="10">
         <v>42887</v>
@@ -2162,7 +2189,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" s="10">
         <v>42917</v>
@@ -2178,7 +2205,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" s="10">
         <v>42948</v>
@@ -2194,7 +2221,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" s="10">
         <v>42979</v>
@@ -2210,7 +2237,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" s="10">
         <v>43009</v>
@@ -2226,7 +2253,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" s="10">
         <v>43040</v>
@@ -2242,7 +2269,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="10">
         <v>43070</v>
@@ -2258,7 +2285,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="10">
         <v>43101</v>
@@ -2274,7 +2301,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B55" s="10">
         <v>43132</v>
@@ -2290,7 +2317,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B56" s="10">
         <v>43160</v>
@@ -2306,7 +2333,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" s="10">
         <v>43191</v>
@@ -2322,7 +2349,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" s="10">
         <v>43221</v>
@@ -2338,7 +2365,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" s="10">
         <v>43252</v>
@@ -2354,7 +2381,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" s="10">
         <v>43282</v>
@@ -2370,7 +2397,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B61" s="10">
         <v>43313</v>
@@ -2386,7 +2413,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" s="10">
         <v>43344</v>
@@ -2402,7 +2429,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" s="10">
         <v>43374</v>
@@ -2418,7 +2445,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" s="10">
         <v>43405</v>
@@ -2434,7 +2461,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="10">
         <v>43435</v>
@@ -2450,7 +2477,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B66" s="10">
         <v>43466</v>
@@ -2466,7 +2493,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B67" s="10">
         <v>43497</v>
@@ -2482,7 +2509,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B68" s="10">
         <v>43525</v>
@@ -2498,7 +2525,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="10">
         <v>43556</v>
@@ -2514,7 +2541,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B70" s="10">
         <v>43586</v>
@@ -2530,7 +2557,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" s="10">
         <v>43617</v>
@@ -2546,7 +2573,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B72" s="10">
         <v>43647</v>
@@ -2562,7 +2589,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B73" s="10">
         <v>43678</v>
@@ -2578,7 +2605,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B74" s="10">
         <v>43709</v>
@@ -2594,7 +2621,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" s="10">
         <v>43739</v>
@@ -2610,7 +2637,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" s="10">
         <v>43770</v>
@@ -2626,7 +2653,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B77" s="10">
         <v>43800</v>
@@ -2642,7 +2669,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" s="10">
         <v>43831</v>
@@ -2658,7 +2685,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B79" s="10">
         <v>43862</v>
@@ -2674,7 +2701,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="10">
         <v>43891</v>
@@ -2690,7 +2717,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B81" s="10">
         <v>43922</v>
@@ -2706,7 +2733,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B82" s="10">
         <v>43952</v>
@@ -2722,7 +2749,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" s="10">
         <v>43983</v>
@@ -2738,7 +2765,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84" s="10">
         <v>44013</v>
@@ -2754,7 +2781,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B85" s="10">
         <v>44044</v>
@@ -2770,7 +2797,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B86" s="10">
         <v>44075</v>
@@ -2786,7 +2813,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87" s="10">
         <v>44105</v>
@@ -2802,7 +2829,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B88" s="10">
         <v>44136</v>
@@ -2818,7 +2845,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B89" s="10">
         <v>44166</v>
@@ -2834,7 +2861,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B90" s="10">
         <v>44197</v>
@@ -2850,7 +2877,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B91" s="10">
         <v>44228</v>
@@ -2866,7 +2893,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B92" s="10">
         <v>44256</v>
@@ -2882,7 +2909,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B93" s="10">
         <v>44287</v>
@@ -2898,7 +2925,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B94" s="10">
         <v>44317</v>
@@ -2914,7 +2941,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B95" s="10">
         <v>44348</v>
@@ -2930,7 +2957,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B96" s="10">
         <v>44378</v>
@@ -2946,7 +2973,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B97" s="10">
         <v>44409</v>
@@ -2962,7 +2989,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B98" s="10">
         <v>44440</v>
@@ -2978,7 +3005,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B99" s="10">
         <v>44470</v>
@@ -2994,7 +3021,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B100" s="10">
         <v>44501</v>
@@ -3010,7 +3037,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B101" s="10">
         <v>44531</v>
@@ -3026,7 +3053,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B102" s="10">
         <v>44562</v>
@@ -3042,7 +3069,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B103" s="10">
         <v>44593</v>
@@ -3058,7 +3085,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B104" s="10">
         <v>44621</v>
@@ -3074,7 +3101,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B105" s="10">
         <v>44652</v>
@@ -3090,7 +3117,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B106" s="10">
         <v>44682</v>
@@ -3106,7 +3133,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B107" s="10">
         <v>44713</v>
@@ -3122,7 +3149,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B108" s="10">
         <v>44743</v>
@@ -3138,7 +3165,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B109" s="10">
         <v>44774</v>
@@ -3154,7 +3181,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B110" s="10">
         <v>44805</v>
@@ -3170,7 +3197,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B111" s="10">
         <v>44835</v>
@@ -3186,7 +3213,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B112" s="10">
         <v>44866</v>
@@ -3202,7 +3229,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B113" s="10">
         <v>44896</v>
@@ -3218,7 +3245,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B114" s="10">
         <v>44927</v>
@@ -3234,7 +3261,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B115" s="10">
         <v>44958</v>
@@ -3250,7 +3277,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B116" s="10">
         <v>44986</v>
@@ -3266,7 +3293,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B117" s="10">
         <v>45017</v>
@@ -3282,7 +3309,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B118" s="10">
         <v>45047</v>
@@ -3298,7 +3325,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B119" s="10">
         <v>45078</v>
@@ -3314,7 +3341,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B120" s="10">
         <v>45108</v>
@@ -3330,7 +3357,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B121" s="10">
         <v>45139</v>
@@ -3346,7 +3373,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B122" s="10">
         <v>45170</v>
@@ -3362,7 +3389,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B123" s="10">
         <v>45200</v>
@@ -3378,7 +3405,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B124" s="10">
         <v>45231</v>
@@ -3394,7 +3421,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B125" s="10">
         <v>45261</v>
@@ -3410,7 +3437,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B126" s="10">
         <v>45292</v>
@@ -3426,7 +3453,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B127" s="10">
         <v>45323</v>
@@ -3442,7 +3469,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B128" s="10">
         <v>45352</v>
@@ -3458,7 +3485,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B129" s="10">
         <v>45383</v>
@@ -3474,7 +3501,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B130" s="10">
         <v>45413</v>
@@ -3490,7 +3517,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B131" s="10">
         <v>45444</v>
@@ -3506,7 +3533,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B132" s="10">
         <v>45474</v>
@@ -3522,7 +3549,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B133" s="10">
         <v>45505</v>
@@ -3538,7 +3565,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B134" s="10">
         <v>45536</v>
@@ -3554,7 +3581,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B135" s="10">
         <v>45566</v>
@@ -3570,7 +3597,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B136" s="10">
         <v>45597</v>
@@ -3586,7 +3613,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B137" s="10">
         <v>45627</v>
@@ -3602,7 +3629,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B138" s="10">
         <v>45658</v>
@@ -3618,7 +3645,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B139" s="10">
         <v>45689</v>
@@ -3634,7 +3661,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B140" s="10">
         <v>45717</v>
@@ -3650,7 +3677,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B141" s="10">
         <v>45748</v>
@@ -3666,7 +3693,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B142" s="10">
         <v>45778</v>
@@ -3682,7 +3709,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B143" s="10">
         <v>45809</v>
@@ -3698,7 +3725,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B144" s="10">
         <v>45839</v>
@@ -3714,7 +3741,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B145" s="10">
         <v>45870</v>
@@ -3730,7 +3757,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B146" s="10">
         <v>45901</v>
@@ -3746,7 +3773,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B147" s="10">
         <v>45931</v>
@@ -3762,7 +3789,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B148" s="10">
         <v>45962</v>
@@ -3778,7 +3805,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B149" s="10">
         <v>45992</v>
@@ -3794,7 +3821,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B150" s="10">
         <v>46023</v>
@@ -3810,7 +3837,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B151" s="10">
         <v>46054</v>
@@ -3826,7 +3853,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B152" s="10">
         <v>46082</v>
@@ -3842,7 +3869,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B153" s="10">
         <v>46113</v>
@@ -3858,7 +3885,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B154" s="10">
         <v>46143</v>
@@ -3874,7 +3901,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B155" s="10">
         <v>46174</v>
@@ -3890,7 +3917,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B156" s="10">
         <v>46204</v>
@@ -3906,7 +3933,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" s="10">
         <v>46235</v>
@@ -3922,7 +3949,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B158" s="10">
         <v>46266</v>
@@ -3938,7 +3965,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B159" s="10">
         <v>46296</v>
@@ -3954,7 +3981,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B160" s="10">
         <v>46327</v>
@@ -3970,7 +3997,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B161" s="10">
         <v>46357</v>
@@ -3986,7 +4013,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B162" s="10">
         <v>46388</v>
@@ -4002,7 +4029,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B163" s="10">
         <v>46419</v>
@@ -4018,7 +4045,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B164" s="10">
         <v>46447</v>
@@ -4034,7 +4061,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B165" s="10">
         <v>46478</v>
@@ -4050,7 +4077,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B166" s="10">
         <v>46508</v>
@@ -4066,7 +4093,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B167" s="10">
         <v>46539</v>
@@ -4082,7 +4109,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B168" s="10">
         <v>46569</v>
@@ -4098,7 +4125,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B169" s="10">
         <v>46600</v>
@@ -4114,7 +4141,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B170" s="10">
         <v>46631</v>
@@ -4130,7 +4157,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" s="10">
         <v>46661</v>
@@ -4146,7 +4173,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" s="10">
         <v>46692</v>
@@ -4162,7 +4189,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B173" s="10">
         <v>46722</v>
@@ -4178,7 +4205,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B174" s="10">
         <v>46753</v>
@@ -4194,7 +4221,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B175" s="10">
         <v>46784</v>
@@ -4210,7 +4237,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B176" s="10">
         <v>46813</v>
@@ -4226,7 +4253,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B177" s="10">
         <v>46844</v>
@@ -4242,7 +4269,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B178" s="10">
         <v>46874</v>
@@ -4258,7 +4285,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B179" s="10">
         <v>46905</v>
@@ -4274,7 +4301,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B180" s="10">
         <v>46935</v>
@@ -4290,7 +4317,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B181" s="10">
         <v>46966</v>
@@ -4306,7 +4333,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B182" s="10">
         <v>46997</v>
@@ -4322,7 +4349,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B183" s="10">
         <v>47027</v>
@@ -4338,7 +4365,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B184" s="10">
         <v>47058</v>
@@ -4354,7 +4381,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B185" s="10">
         <v>47088</v>
@@ -4380,7 +4407,7 @@
   <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4401,19 +4428,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -4425,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -4439,13 +4466,13 @@
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10">
         <v>41518</v>
@@ -4454,10 +4481,10 @@
         <v>42614</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -4471,21 +4498,21 @@
         <v>9.189982</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10">
         <v>42979</v>
@@ -4494,13 +4521,13 @@
         <v>43282</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" s="13" t="str">
         <f>"42.596796"</f>
@@ -4511,18 +4538,18 @@
         <v>-5.572945</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="10">
         <v>42614</v>
@@ -4531,10 +4558,10 @@
         <v>43525</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>4</v>
@@ -4548,15 +4575,15 @@
         <v>9.189982</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -4596,7 +4623,7 @@
     </row>
     <row r="6" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -4636,7 +4663,7 @@
     </row>
     <row r="7" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -4676,7 +4703,7 @@
     </row>
     <row r="8" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
@@ -4697,7 +4724,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>"48.8575"</f>
@@ -4716,7 +4743,7 @@
     </row>
     <row r="9" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -4728,7 +4755,7 @@
         <v>45170</v>
       </c>
       <c r="E9" s="10">
-        <v>45962</v>
+        <v>46023</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
@@ -4920,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E958DC3-3ED4-8E47-BF1A-FEFD3D4117EB}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4935,9 +4962,9 @@
     <col min="12" max="12" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
@@ -4949,18 +4976,18 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>31</v>
@@ -4969,15 +4996,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>31</v>
@@ -4986,77 +5013,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -5068,12 +5095,12 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5088,12 +5115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -5102,16 +5129,15 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -5120,16 +5146,15 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -5140,11 +5165,10 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -5160,9 +5184,9 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -5174,13 +5198,13 @@
         <v>31</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -5195,61 +5219,58 @@
         <v>1</v>
       </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -5259,13 +5280,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5275,16 +5296,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5293,102 +5314,108 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
+      <c r="B21" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="A22" s="14">
+        <v>6</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>8</v>
+      <c r="A26" s="3">
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -5399,16 +5426,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -5416,10 +5443,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -5429,85 +5456,85 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>8</v>
+      <c r="A29" s="3">
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>7</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>7</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5515,47 +5542,47 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -5566,33 +5593,33 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>303</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5600,16 +5627,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5617,16 +5644,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -5634,18 +5661,324 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>7</v>
       </c>
-      <c r="B41" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>7</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
         <v>30</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D59" t="s">
         <v>36</v>
       </c>
-      <c r="E41">
+      <c r="E59">
         <v>1</v>
       </c>
     </row>
@@ -5659,7 +5992,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5674,22 +6007,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5697,39 +6030,39 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
       </c>
       <c r="E2">
         <v>2021</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>2021</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5737,13 +6070,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
       </c>
       <c r="E4">
         <v>2019</v>
@@ -5754,19 +6087,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
       </c>
       <c r="E5">
         <v>2021</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5774,30 +6107,30 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>2021</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -5806,7 +6139,7 @@
         <v>2023</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5814,30 +6147,30 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
       </c>
       <c r="E8">
         <v>2024</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -5846,7 +6179,7 @@
         <v>2022</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5854,10 +6187,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -5866,7 +6199,7 @@
         <v>2021</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5874,19 +6207,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>2024</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5894,19 +6227,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>2025</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/data/Resume_for_analytics_v4.xlsx
+++ b/data/Resume_for_analytics_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edpi/Documents/Git Repos/Analytics_resume/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B2876-C823-9448-94C1-B15994A5197C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F6332E-87A8-A546-8095-F76DAB7DEBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17420" activeTab="2" xr2:uid="{98D999EE-BA1D-1548-A71A-707BD42C34C4}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17420" activeTab="3" xr2:uid="{98D999EE-BA1D-1548-A71A-707BD42C34C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="308">
   <si>
     <t>Role</t>
   </si>
@@ -246,739 +246,739 @@
     <t>Process Mining</t>
   </si>
   <si>
+    <t>https://www.credly.com/badges/dcca0505-16db-4469-8929-93069caf8346?source=linked_in_profile</t>
+  </si>
+  <si>
+    <t>https://www.credly.com/badges/331fa7f3-e84e-4915-b13f-b1caf88e2f15?source=linked_in_profile</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>Machine Learning No-Code Approach: Using Azure ML Studio</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>AWS Certified Machine Learning Specialty MLS-C01</t>
+  </si>
+  <si>
+    <t>Python and Flask Bootcamp: Create Websites using Flask!</t>
+  </si>
+  <si>
+    <t>Analytics Engineering Bootcamp</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Intermediate to Advanced Python with 10 OOP Projects</t>
+  </si>
+  <si>
+    <t>DP-203 - Data Engineering on Microsoft Azure</t>
+  </si>
+  <si>
+    <t>Python for Financial Analysis and Algorithmic Trading</t>
+  </si>
+  <si>
+    <t>The Complete dbt (Data Build Tool) Bootcamp: Zero to Hero</t>
+  </si>
+  <si>
+    <t>104/110</t>
+  </si>
+  <si>
+    <t>91/110</t>
+  </si>
+  <si>
+    <t>Università degli Studi di Milano-Bicocca</t>
+  </si>
+  <si>
+    <t>Degree in Business Economics (L-33)</t>
+  </si>
+  <si>
+    <t>Master’s degree in Economics and Finance (LM-16)</t>
+  </si>
+  <si>
+    <t>Universidad de León</t>
+  </si>
+  <si>
+    <t>YearMonth</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Leon, Spain</t>
+  </si>
+  <si>
+    <t>Business Economics</t>
+  </si>
+  <si>
+    <t>International Mobility Program with exams taken in English and Spanish</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Economics and Finance</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>ExperienceID</t>
+  </si>
+  <si>
+    <t>Years_Used</t>
+  </si>
+  <si>
+    <t>Start_Month</t>
+  </si>
+  <si>
+    <t>End_Month</t>
+  </si>
+  <si>
+    <t>09-2013</t>
+  </si>
+  <si>
+    <t>10-2013</t>
+  </si>
+  <si>
+    <t>11-2013</t>
+  </si>
+  <si>
+    <t>12-2013</t>
+  </si>
+  <si>
+    <t>01-2014</t>
+  </si>
+  <si>
+    <t>02-2014</t>
+  </si>
+  <si>
+    <t>03-2014</t>
+  </si>
+  <si>
+    <t>04-2014</t>
+  </si>
+  <si>
+    <t>05-2014</t>
+  </si>
+  <si>
+    <t>06-2014</t>
+  </si>
+  <si>
+    <t>07-2014</t>
+  </si>
+  <si>
+    <t>08-2014</t>
+  </si>
+  <si>
+    <t>09-2014</t>
+  </si>
+  <si>
+    <t>10-2014</t>
+  </si>
+  <si>
+    <t>11-2014</t>
+  </si>
+  <si>
+    <t>12-2014</t>
+  </si>
+  <si>
+    <t>01-2015</t>
+  </si>
+  <si>
+    <t>02-2015</t>
+  </si>
+  <si>
+    <t>03-2015</t>
+  </si>
+  <si>
+    <t>04-2015</t>
+  </si>
+  <si>
+    <t>05-2015</t>
+  </si>
+  <si>
+    <t>06-2015</t>
+  </si>
+  <si>
+    <t>07-2015</t>
+  </si>
+  <si>
+    <t>08-2015</t>
+  </si>
+  <si>
+    <t>09-2015</t>
+  </si>
+  <si>
+    <t>10-2015</t>
+  </si>
+  <si>
+    <t>11-2015</t>
+  </si>
+  <si>
+    <t>12-2015</t>
+  </si>
+  <si>
+    <t>01-2016</t>
+  </si>
+  <si>
+    <t>02-2016</t>
+  </si>
+  <si>
+    <t>03-2016</t>
+  </si>
+  <si>
+    <t>04-2016</t>
+  </si>
+  <si>
+    <t>05-2016</t>
+  </si>
+  <si>
+    <t>06-2016</t>
+  </si>
+  <si>
+    <t>07-2016</t>
+  </si>
+  <si>
+    <t>08-2016</t>
+  </si>
+  <si>
+    <t>09-2016</t>
+  </si>
+  <si>
+    <t>10-2016</t>
+  </si>
+  <si>
+    <t>11-2016</t>
+  </si>
+  <si>
+    <t>12-2016</t>
+  </si>
+  <si>
+    <t>01-2017</t>
+  </si>
+  <si>
+    <t>02-2017</t>
+  </si>
+  <si>
+    <t>03-2017</t>
+  </si>
+  <si>
+    <t>04-2017</t>
+  </si>
+  <si>
+    <t>05-2017</t>
+  </si>
+  <si>
+    <t>06-2017</t>
+  </si>
+  <si>
+    <t>07-2017</t>
+  </si>
+  <si>
+    <t>08-2017</t>
+  </si>
+  <si>
+    <t>09-2017</t>
+  </si>
+  <si>
+    <t>10-2017</t>
+  </si>
+  <si>
+    <t>11-2017</t>
+  </si>
+  <si>
+    <t>12-2017</t>
+  </si>
+  <si>
+    <t>01-2018</t>
+  </si>
+  <si>
+    <t>02-2018</t>
+  </si>
+  <si>
+    <t>03-2018</t>
+  </si>
+  <si>
+    <t>04-2018</t>
+  </si>
+  <si>
+    <t>05-2018</t>
+  </si>
+  <si>
+    <t>06-2018</t>
+  </si>
+  <si>
+    <t>07-2018</t>
+  </si>
+  <si>
+    <t>08-2018</t>
+  </si>
+  <si>
+    <t>09-2018</t>
+  </si>
+  <si>
+    <t>10-2018</t>
+  </si>
+  <si>
+    <t>11-2018</t>
+  </si>
+  <si>
+    <t>12-2018</t>
+  </si>
+  <si>
+    <t>01-2019</t>
+  </si>
+  <si>
+    <t>02-2019</t>
+  </si>
+  <si>
+    <t>03-2019</t>
+  </si>
+  <si>
+    <t>04-2019</t>
+  </si>
+  <si>
+    <t>05-2019</t>
+  </si>
+  <si>
+    <t>06-2019</t>
+  </si>
+  <si>
+    <t>07-2019</t>
+  </si>
+  <si>
+    <t>08-2019</t>
+  </si>
+  <si>
+    <t>09-2019</t>
+  </si>
+  <si>
+    <t>10-2019</t>
+  </si>
+  <si>
+    <t>11-2019</t>
+  </si>
+  <si>
+    <t>12-2019</t>
+  </si>
+  <si>
+    <t>01-2020</t>
+  </si>
+  <si>
+    <t>02-2020</t>
+  </si>
+  <si>
+    <t>03-2020</t>
+  </si>
+  <si>
+    <t>04-2020</t>
+  </si>
+  <si>
+    <t>05-2020</t>
+  </si>
+  <si>
+    <t>06-2020</t>
+  </si>
+  <si>
+    <t>07-2020</t>
+  </si>
+  <si>
+    <t>08-2020</t>
+  </si>
+  <si>
+    <t>09-2020</t>
+  </si>
+  <si>
+    <t>10-2020</t>
+  </si>
+  <si>
+    <t>11-2020</t>
+  </si>
+  <si>
+    <t>12-2020</t>
+  </si>
+  <si>
+    <t>01-2021</t>
+  </si>
+  <si>
+    <t>02-2021</t>
+  </si>
+  <si>
+    <t>03-2021</t>
+  </si>
+  <si>
+    <t>04-2021</t>
+  </si>
+  <si>
+    <t>05-2021</t>
+  </si>
+  <si>
+    <t>06-2021</t>
+  </si>
+  <si>
+    <t>07-2021</t>
+  </si>
+  <si>
+    <t>08-2021</t>
+  </si>
+  <si>
+    <t>09-2021</t>
+  </si>
+  <si>
+    <t>10-2021</t>
+  </si>
+  <si>
+    <t>11-2021</t>
+  </si>
+  <si>
+    <t>12-2021</t>
+  </si>
+  <si>
+    <t>01-2022</t>
+  </si>
+  <si>
+    <t>02-2022</t>
+  </si>
+  <si>
+    <t>03-2022</t>
+  </si>
+  <si>
+    <t>04-2022</t>
+  </si>
+  <si>
+    <t>05-2022</t>
+  </si>
+  <si>
+    <t>06-2022</t>
+  </si>
+  <si>
+    <t>07-2022</t>
+  </si>
+  <si>
+    <t>08-2022</t>
+  </si>
+  <si>
+    <t>09-2022</t>
+  </si>
+  <si>
+    <t>10-2022</t>
+  </si>
+  <si>
+    <t>11-2022</t>
+  </si>
+  <si>
+    <t>12-2022</t>
+  </si>
+  <si>
+    <t>01-2023</t>
+  </si>
+  <si>
+    <t>02-2023</t>
+  </si>
+  <si>
+    <t>03-2023</t>
+  </si>
+  <si>
+    <t>04-2023</t>
+  </si>
+  <si>
+    <t>05-2023</t>
+  </si>
+  <si>
+    <t>06-2023</t>
+  </si>
+  <si>
+    <t>07-2023</t>
+  </si>
+  <si>
+    <t>08-2023</t>
+  </si>
+  <si>
+    <t>09-2023</t>
+  </si>
+  <si>
+    <t>10-2023</t>
+  </si>
+  <si>
+    <t>11-2023</t>
+  </si>
+  <si>
+    <t>12-2023</t>
+  </si>
+  <si>
+    <t>01-2024</t>
+  </si>
+  <si>
+    <t>02-2024</t>
+  </si>
+  <si>
+    <t>03-2024</t>
+  </si>
+  <si>
+    <t>04-2024</t>
+  </si>
+  <si>
+    <t>05-2024</t>
+  </si>
+  <si>
+    <t>06-2024</t>
+  </si>
+  <si>
+    <t>07-2024</t>
+  </si>
+  <si>
+    <t>08-2024</t>
+  </si>
+  <si>
+    <t>09-2024</t>
+  </si>
+  <si>
+    <t>10-2024</t>
+  </si>
+  <si>
+    <t>11-2024</t>
+  </si>
+  <si>
+    <t>12-2024</t>
+  </si>
+  <si>
+    <t>01-2025</t>
+  </si>
+  <si>
+    <t>02-2025</t>
+  </si>
+  <si>
+    <t>03-2025</t>
+  </si>
+  <si>
+    <t>04-2025</t>
+  </si>
+  <si>
+    <t>05-2025</t>
+  </si>
+  <si>
+    <t>06-2025</t>
+  </si>
+  <si>
+    <t>07-2025</t>
+  </si>
+  <si>
+    <t>08-2025</t>
+  </si>
+  <si>
+    <t>09-2025</t>
+  </si>
+  <si>
+    <t>10-2025</t>
+  </si>
+  <si>
+    <t>11-2025</t>
+  </si>
+  <si>
+    <t>12-2025</t>
+  </si>
+  <si>
+    <t>01-2026</t>
+  </si>
+  <si>
+    <t>02-2026</t>
+  </si>
+  <si>
+    <t>03-2026</t>
+  </si>
+  <si>
+    <t>04-2026</t>
+  </si>
+  <si>
+    <t>05-2026</t>
+  </si>
+  <si>
+    <t>06-2026</t>
+  </si>
+  <si>
+    <t>07-2026</t>
+  </si>
+  <si>
+    <t>08-2026</t>
+  </si>
+  <si>
+    <t>09-2026</t>
+  </si>
+  <si>
+    <t>10-2026</t>
+  </si>
+  <si>
+    <t>11-2026</t>
+  </si>
+  <si>
+    <t>12-2026</t>
+  </si>
+  <si>
+    <t>01-2027</t>
+  </si>
+  <si>
+    <t>02-2027</t>
+  </si>
+  <si>
+    <t>03-2027</t>
+  </si>
+  <si>
+    <t>04-2027</t>
+  </si>
+  <si>
+    <t>05-2027</t>
+  </si>
+  <si>
+    <t>06-2027</t>
+  </si>
+  <si>
+    <t>07-2027</t>
+  </si>
+  <si>
+    <t>08-2027</t>
+  </si>
+  <si>
+    <t>09-2027</t>
+  </si>
+  <si>
+    <t>10-2027</t>
+  </si>
+  <si>
+    <t>11-2027</t>
+  </si>
+  <si>
+    <t>12-2027</t>
+  </si>
+  <si>
+    <t>01-2028</t>
+  </si>
+  <si>
+    <t>02-2028</t>
+  </si>
+  <si>
+    <t>03-2028</t>
+  </si>
+  <si>
+    <t>04-2028</t>
+  </si>
+  <si>
+    <t>05-2028</t>
+  </si>
+  <si>
+    <t>06-2028</t>
+  </si>
+  <si>
+    <t>07-2028</t>
+  </si>
+  <si>
+    <t>08-2028</t>
+  </si>
+  <si>
+    <t>09-2028</t>
+  </si>
+  <si>
+    <t>10-2028</t>
+  </si>
+  <si>
+    <t>11-2028</t>
+  </si>
+  <si>
+    <t>12-2028</t>
+  </si>
+  <si>
+    <t>YearMonthCal</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Scala</t>
+  </si>
+  <si>
+    <t>MS Office</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Paris, France</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-bcc8c077-735f-43e3-8632-add3bd582fdd/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-c1f8334b-6496-436a-8b61-1b0947c1e91b/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-77d1d78e-1049-4115-a51d-af567fd34ce4/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-eb5a14cb-df46-4f58-a649-e19e5a8d892a/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-abc475ae-1405-4069-a2e8-4fc57e22a708/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-0a04cdf0-1a5f-4f32-8691-83e1fb90ac6e/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-a083c974-502e-45b7-857e-d148fc020979/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/certificate/UC-d49aa702-9c8d-48e7-9a1a-a30fd798cbdd/</t>
+  </si>
+  <si>
+    <t>Year_Issued</t>
+  </si>
+  <si>
+    <t>Gretl</t>
+  </si>
+  <si>
+    <t>General IT</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>SAP HANA</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>AWS Redshift</t>
+  </si>
+  <si>
+    <t>Oracle Database</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>GitHub/GitLab</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>https://www.credly.com/badges/dcca0505-16db-4469-8929-93069caf8346?source=linked_in_profile</t>
-  </si>
-  <si>
-    <t>https://www.credly.com/badges/331fa7f3-e84e-4915-b13f-b1caf88e2f15?source=linked_in_profile</t>
-  </si>
-  <si>
-    <t>Udemy</t>
-  </si>
-  <si>
-    <t>Machine Learning No-Code Approach: Using Azure ML Studio</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>AWS Certified Machine Learning Specialty MLS-C01</t>
-  </si>
-  <si>
-    <t>Python and Flask Bootcamp: Create Websites using Flask!</t>
-  </si>
-  <si>
-    <t>Analytics Engineering Bootcamp</t>
-  </si>
-  <si>
-    <t>Analytics</t>
-  </si>
-  <si>
-    <t>Intermediate to Advanced Python with 10 OOP Projects</t>
-  </si>
-  <si>
-    <t>DP-203 - Data Engineering on Microsoft Azure</t>
-  </si>
-  <si>
-    <t>Python for Financial Analysis and Algorithmic Trading</t>
-  </si>
-  <si>
-    <t>The Complete dbt (Data Build Tool) Bootcamp: Zero to Hero</t>
-  </si>
-  <si>
-    <t>104/110</t>
-  </si>
-  <si>
-    <t>91/110</t>
-  </si>
-  <si>
-    <t>Università degli Studi di Milano-Bicocca</t>
-  </si>
-  <si>
-    <t>Degree in Business Economics (L-33)</t>
-  </si>
-  <si>
-    <t>Master’s degree in Economics and Finance (LM-16)</t>
-  </si>
-  <si>
-    <t>Universidad de León</t>
-  </si>
-  <si>
-    <t>YearMonth</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>Leon, Spain</t>
-  </si>
-  <si>
-    <t>Business Economics</t>
-  </si>
-  <si>
-    <t>International Mobility Program with exams taken in English and Spanish</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Experience</t>
-  </si>
-  <si>
-    <t>Economics and Finance</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>ExperienceID</t>
-  </si>
-  <si>
-    <t>Years_Used</t>
-  </si>
-  <si>
-    <t>Start_Month</t>
-  </si>
-  <si>
-    <t>End_Month</t>
-  </si>
-  <si>
-    <t>09-2013</t>
-  </si>
-  <si>
-    <t>10-2013</t>
-  </si>
-  <si>
-    <t>11-2013</t>
-  </si>
-  <si>
-    <t>12-2013</t>
-  </si>
-  <si>
-    <t>01-2014</t>
-  </si>
-  <si>
-    <t>02-2014</t>
-  </si>
-  <si>
-    <t>03-2014</t>
-  </si>
-  <si>
-    <t>04-2014</t>
-  </si>
-  <si>
-    <t>05-2014</t>
-  </si>
-  <si>
-    <t>06-2014</t>
-  </si>
-  <si>
-    <t>07-2014</t>
-  </si>
-  <si>
-    <t>08-2014</t>
-  </si>
-  <si>
-    <t>09-2014</t>
-  </si>
-  <si>
-    <t>10-2014</t>
-  </si>
-  <si>
-    <t>11-2014</t>
-  </si>
-  <si>
-    <t>12-2014</t>
-  </si>
-  <si>
-    <t>01-2015</t>
-  </si>
-  <si>
-    <t>02-2015</t>
-  </si>
-  <si>
-    <t>03-2015</t>
-  </si>
-  <si>
-    <t>04-2015</t>
-  </si>
-  <si>
-    <t>05-2015</t>
-  </si>
-  <si>
-    <t>06-2015</t>
-  </si>
-  <si>
-    <t>07-2015</t>
-  </si>
-  <si>
-    <t>08-2015</t>
-  </si>
-  <si>
-    <t>09-2015</t>
-  </si>
-  <si>
-    <t>10-2015</t>
-  </si>
-  <si>
-    <t>11-2015</t>
-  </si>
-  <si>
-    <t>12-2015</t>
-  </si>
-  <si>
-    <t>01-2016</t>
-  </si>
-  <si>
-    <t>02-2016</t>
-  </si>
-  <si>
-    <t>03-2016</t>
-  </si>
-  <si>
-    <t>04-2016</t>
-  </si>
-  <si>
-    <t>05-2016</t>
-  </si>
-  <si>
-    <t>06-2016</t>
-  </si>
-  <si>
-    <t>07-2016</t>
-  </si>
-  <si>
-    <t>08-2016</t>
-  </si>
-  <si>
-    <t>09-2016</t>
-  </si>
-  <si>
-    <t>10-2016</t>
-  </si>
-  <si>
-    <t>11-2016</t>
-  </si>
-  <si>
-    <t>12-2016</t>
-  </si>
-  <si>
-    <t>01-2017</t>
-  </si>
-  <si>
-    <t>02-2017</t>
-  </si>
-  <si>
-    <t>03-2017</t>
-  </si>
-  <si>
-    <t>04-2017</t>
-  </si>
-  <si>
-    <t>05-2017</t>
-  </si>
-  <si>
-    <t>06-2017</t>
-  </si>
-  <si>
-    <t>07-2017</t>
-  </si>
-  <si>
-    <t>08-2017</t>
-  </si>
-  <si>
-    <t>09-2017</t>
-  </si>
-  <si>
-    <t>10-2017</t>
-  </si>
-  <si>
-    <t>11-2017</t>
-  </si>
-  <si>
-    <t>12-2017</t>
-  </si>
-  <si>
-    <t>01-2018</t>
-  </si>
-  <si>
-    <t>02-2018</t>
-  </si>
-  <si>
-    <t>03-2018</t>
-  </si>
-  <si>
-    <t>04-2018</t>
-  </si>
-  <si>
-    <t>05-2018</t>
-  </si>
-  <si>
-    <t>06-2018</t>
-  </si>
-  <si>
-    <t>07-2018</t>
-  </si>
-  <si>
-    <t>08-2018</t>
-  </si>
-  <si>
-    <t>09-2018</t>
-  </si>
-  <si>
-    <t>10-2018</t>
-  </si>
-  <si>
-    <t>11-2018</t>
-  </si>
-  <si>
-    <t>12-2018</t>
-  </si>
-  <si>
-    <t>01-2019</t>
-  </si>
-  <si>
-    <t>02-2019</t>
-  </si>
-  <si>
-    <t>03-2019</t>
-  </si>
-  <si>
-    <t>04-2019</t>
-  </si>
-  <si>
-    <t>05-2019</t>
-  </si>
-  <si>
-    <t>06-2019</t>
-  </si>
-  <si>
-    <t>07-2019</t>
-  </si>
-  <si>
-    <t>08-2019</t>
-  </si>
-  <si>
-    <t>09-2019</t>
-  </si>
-  <si>
-    <t>10-2019</t>
-  </si>
-  <si>
-    <t>11-2019</t>
-  </si>
-  <si>
-    <t>12-2019</t>
-  </si>
-  <si>
-    <t>01-2020</t>
-  </si>
-  <si>
-    <t>02-2020</t>
-  </si>
-  <si>
-    <t>03-2020</t>
-  </si>
-  <si>
-    <t>04-2020</t>
-  </si>
-  <si>
-    <t>05-2020</t>
-  </si>
-  <si>
-    <t>06-2020</t>
-  </si>
-  <si>
-    <t>07-2020</t>
-  </si>
-  <si>
-    <t>08-2020</t>
-  </si>
-  <si>
-    <t>09-2020</t>
-  </si>
-  <si>
-    <t>10-2020</t>
-  </si>
-  <si>
-    <t>11-2020</t>
-  </si>
-  <si>
-    <t>12-2020</t>
-  </si>
-  <si>
-    <t>01-2021</t>
-  </si>
-  <si>
-    <t>02-2021</t>
-  </si>
-  <si>
-    <t>03-2021</t>
-  </si>
-  <si>
-    <t>04-2021</t>
-  </si>
-  <si>
-    <t>05-2021</t>
-  </si>
-  <si>
-    <t>06-2021</t>
-  </si>
-  <si>
-    <t>07-2021</t>
-  </si>
-  <si>
-    <t>08-2021</t>
-  </si>
-  <si>
-    <t>09-2021</t>
-  </si>
-  <si>
-    <t>10-2021</t>
-  </si>
-  <si>
-    <t>11-2021</t>
-  </si>
-  <si>
-    <t>12-2021</t>
-  </si>
-  <si>
-    <t>01-2022</t>
-  </si>
-  <si>
-    <t>02-2022</t>
-  </si>
-  <si>
-    <t>03-2022</t>
-  </si>
-  <si>
-    <t>04-2022</t>
-  </si>
-  <si>
-    <t>05-2022</t>
-  </si>
-  <si>
-    <t>06-2022</t>
-  </si>
-  <si>
-    <t>07-2022</t>
-  </si>
-  <si>
-    <t>08-2022</t>
-  </si>
-  <si>
-    <t>09-2022</t>
-  </si>
-  <si>
-    <t>10-2022</t>
-  </si>
-  <si>
-    <t>11-2022</t>
-  </si>
-  <si>
-    <t>12-2022</t>
-  </si>
-  <si>
-    <t>01-2023</t>
-  </si>
-  <si>
-    <t>02-2023</t>
-  </si>
-  <si>
-    <t>03-2023</t>
-  </si>
-  <si>
-    <t>04-2023</t>
-  </si>
-  <si>
-    <t>05-2023</t>
-  </si>
-  <si>
-    <t>06-2023</t>
-  </si>
-  <si>
-    <t>07-2023</t>
-  </si>
-  <si>
-    <t>08-2023</t>
-  </si>
-  <si>
-    <t>09-2023</t>
-  </si>
-  <si>
-    <t>10-2023</t>
-  </si>
-  <si>
-    <t>11-2023</t>
-  </si>
-  <si>
-    <t>12-2023</t>
-  </si>
-  <si>
-    <t>01-2024</t>
-  </si>
-  <si>
-    <t>02-2024</t>
-  </si>
-  <si>
-    <t>03-2024</t>
-  </si>
-  <si>
-    <t>04-2024</t>
-  </si>
-  <si>
-    <t>05-2024</t>
-  </si>
-  <si>
-    <t>06-2024</t>
-  </si>
-  <si>
-    <t>07-2024</t>
-  </si>
-  <si>
-    <t>08-2024</t>
-  </si>
-  <si>
-    <t>09-2024</t>
-  </si>
-  <si>
-    <t>10-2024</t>
-  </si>
-  <si>
-    <t>11-2024</t>
-  </si>
-  <si>
-    <t>12-2024</t>
-  </si>
-  <si>
-    <t>01-2025</t>
-  </si>
-  <si>
-    <t>02-2025</t>
-  </si>
-  <si>
-    <t>03-2025</t>
-  </si>
-  <si>
-    <t>04-2025</t>
-  </si>
-  <si>
-    <t>05-2025</t>
-  </si>
-  <si>
-    <t>06-2025</t>
-  </si>
-  <si>
-    <t>07-2025</t>
-  </si>
-  <si>
-    <t>08-2025</t>
-  </si>
-  <si>
-    <t>09-2025</t>
-  </si>
-  <si>
-    <t>10-2025</t>
-  </si>
-  <si>
-    <t>11-2025</t>
-  </si>
-  <si>
-    <t>12-2025</t>
-  </si>
-  <si>
-    <t>01-2026</t>
-  </si>
-  <si>
-    <t>02-2026</t>
-  </si>
-  <si>
-    <t>03-2026</t>
-  </si>
-  <si>
-    <t>04-2026</t>
-  </si>
-  <si>
-    <t>05-2026</t>
-  </si>
-  <si>
-    <t>06-2026</t>
-  </si>
-  <si>
-    <t>07-2026</t>
-  </si>
-  <si>
-    <t>08-2026</t>
-  </si>
-  <si>
-    <t>09-2026</t>
-  </si>
-  <si>
-    <t>10-2026</t>
-  </si>
-  <si>
-    <t>11-2026</t>
-  </si>
-  <si>
-    <t>12-2026</t>
-  </si>
-  <si>
-    <t>01-2027</t>
-  </si>
-  <si>
-    <t>02-2027</t>
-  </si>
-  <si>
-    <t>03-2027</t>
-  </si>
-  <si>
-    <t>04-2027</t>
-  </si>
-  <si>
-    <t>05-2027</t>
-  </si>
-  <si>
-    <t>06-2027</t>
-  </si>
-  <si>
-    <t>07-2027</t>
-  </si>
-  <si>
-    <t>08-2027</t>
-  </si>
-  <si>
-    <t>09-2027</t>
-  </si>
-  <si>
-    <t>10-2027</t>
-  </si>
-  <si>
-    <t>11-2027</t>
-  </si>
-  <si>
-    <t>12-2027</t>
-  </si>
-  <si>
-    <t>01-2028</t>
-  </si>
-  <si>
-    <t>02-2028</t>
-  </si>
-  <si>
-    <t>03-2028</t>
-  </si>
-  <si>
-    <t>04-2028</t>
-  </si>
-  <si>
-    <t>05-2028</t>
-  </si>
-  <si>
-    <t>06-2028</t>
-  </si>
-  <si>
-    <t>07-2028</t>
-  </si>
-  <si>
-    <t>08-2028</t>
-  </si>
-  <si>
-    <t>09-2028</t>
-  </si>
-  <si>
-    <t>10-2028</t>
-  </si>
-  <si>
-    <t>11-2028</t>
-  </si>
-  <si>
-    <t>12-2028</t>
-  </si>
-  <si>
-    <t>YearMonthCal</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Scala</t>
-  </si>
-  <si>
-    <t>MS Office</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Paris, France</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/certificate/UC-bcc8c077-735f-43e3-8632-add3bd582fdd/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/certificate/UC-c1f8334b-6496-436a-8b61-1b0947c1e91b/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/certificate/UC-77d1d78e-1049-4115-a51d-af567fd34ce4/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/certificate/UC-eb5a14cb-df46-4f58-a649-e19e5a8d892a/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/certificate/UC-abc475ae-1405-4069-a2e8-4fc57e22a708/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/certificate/UC-0a04cdf0-1a5f-4f32-8691-83e1fb90ac6e/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/certificate/UC-a083c974-502e-45b7-857e-d148fc020979/</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/certificate/UC-d49aa702-9c8d-48e7-9a1a-a30fd798cbdd/</t>
-  </si>
-  <si>
-    <t>Year_Issued</t>
-  </si>
-  <si>
-    <t>Gretl</t>
-  </si>
-  <si>
-    <t>General IT</t>
-  </si>
-  <si>
-    <t>Databases</t>
-  </si>
-  <si>
-    <t>SQL Server</t>
-  </si>
-  <si>
-    <t>SAP HANA</t>
-  </si>
-  <si>
-    <t>PostgreSQL</t>
-  </si>
-  <si>
-    <t>AWS Redshift</t>
-  </si>
-  <si>
-    <t>Oracle Database</t>
-  </si>
-  <si>
-    <t>MySQL</t>
-  </si>
-  <si>
-    <t>GitHub/GitLab</t>
-  </si>
-  <si>
-    <t>git</t>
   </si>
 </sst>
 </file>
@@ -1439,21 +1439,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="10">
         <v>41518</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="10">
         <v>41548</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="10">
         <v>41579</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="10">
         <v>41609</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="10">
         <v>41640</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="10">
         <v>41671</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="10">
         <v>41699</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="10">
         <v>41730</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="10">
         <v>41760</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="10">
         <v>41791</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="10">
         <v>41821</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="10">
         <v>41852</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="10">
         <v>41883</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="10">
         <v>41913</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="10">
         <v>41944</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="10">
         <v>41974</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="10">
         <v>42005</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="10">
         <v>42036</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="10">
         <v>42064</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="10">
         <v>42095</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="10">
         <v>42125</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10">
         <v>42156</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="10">
         <v>42186</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="10">
         <v>42217</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="10">
         <v>42248</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="10">
         <v>42278</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="10">
         <v>42309</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="10">
         <v>42339</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="10">
         <v>42370</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="10">
         <v>42401</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="10">
         <v>42430</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="10">
         <v>42461</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="10">
         <v>42491</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="10">
         <v>42522</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="10">
         <v>42552</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="10">
         <v>42583</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="10">
         <v>42614</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="10">
         <v>42644</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" s="10">
         <v>42675</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="10">
         <v>42705</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="10">
         <v>42736</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" s="10">
         <v>42767</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B44" s="10">
         <v>42795</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="10">
         <v>42826</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="10">
         <v>42856</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="10">
         <v>42887</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="10">
         <v>42917</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" s="10">
         <v>42948</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" s="10">
         <v>42979</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B51" s="10">
         <v>43009</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B52" s="10">
         <v>43040</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" s="10">
         <v>43070</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" s="10">
         <v>43101</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B55" s="10">
         <v>43132</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56" s="10">
         <v>43160</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="10">
         <v>43191</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" s="10">
         <v>43221</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" s="10">
         <v>43252</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="10">
         <v>43282</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" s="10">
         <v>43313</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B62" s="10">
         <v>43344</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B63" s="10">
         <v>43374</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" s="10">
         <v>43405</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="10">
         <v>43435</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B66" s="10">
         <v>43466</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B67" s="10">
         <v>43497</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B68" s="10">
         <v>43525</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" s="10">
         <v>43556</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="10">
         <v>43586</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" s="10">
         <v>43617</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" s="10">
         <v>43647</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B73" s="10">
         <v>43678</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" s="10">
         <v>43709</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75" s="10">
         <v>43739</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" s="10">
         <v>43770</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" s="10">
         <v>43800</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B78" s="10">
         <v>43831</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B79" s="10">
         <v>43862</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B80" s="10">
         <v>43891</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B81" s="10">
         <v>43922</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B82" s="10">
         <v>43952</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B83" s="10">
         <v>43983</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B84" s="10">
         <v>44013</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B85" s="10">
         <v>44044</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B86" s="10">
         <v>44075</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B87" s="10">
         <v>44105</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B88" s="10">
         <v>44136</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B89" s="10">
         <v>44166</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B90" s="10">
         <v>44197</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B91" s="10">
         <v>44228</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B92" s="10">
         <v>44256</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B93" s="10">
         <v>44287</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B94" s="10">
         <v>44317</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B95" s="10">
         <v>44348</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B96" s="10">
         <v>44378</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B97" s="10">
         <v>44409</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B98" s="10">
         <v>44440</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B99" s="10">
         <v>44470</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B100" s="10">
         <v>44501</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B101" s="10">
         <v>44531</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B102" s="10">
         <v>44562</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B103" s="10">
         <v>44593</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B104" s="10">
         <v>44621</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B105" s="10">
         <v>44652</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B106" s="10">
         <v>44682</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B107" s="10">
         <v>44713</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B108" s="10">
         <v>44743</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B109" s="10">
         <v>44774</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B110" s="10">
         <v>44805</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B111" s="10">
         <v>44835</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" s="10">
         <v>44866</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B113" s="10">
         <v>44896</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B114" s="10">
         <v>44927</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B115" s="10">
         <v>44958</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B116" s="10">
         <v>44986</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B117" s="10">
         <v>45017</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B118" s="10">
         <v>45047</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B119" s="10">
         <v>45078</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B120" s="10">
         <v>45108</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B121" s="10">
         <v>45139</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B122" s="10">
         <v>45170</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B123" s="10">
         <v>45200</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B124" s="10">
         <v>45231</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B125" s="10">
         <v>45261</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B126" s="10">
         <v>45292</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B127" s="10">
         <v>45323</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B128" s="10">
         <v>45352</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B129" s="10">
         <v>45383</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B130" s="10">
         <v>45413</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B131" s="10">
         <v>45444</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B132" s="10">
         <v>45474</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B133" s="10">
         <v>45505</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B134" s="10">
         <v>45536</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B135" s="10">
         <v>45566</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B136" s="10">
         <v>45597</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B137" s="10">
         <v>45627</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B138" s="10">
         <v>45658</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B139" s="10">
         <v>45689</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B140" s="10">
         <v>45717</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B141" s="10">
         <v>45748</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B142" s="10">
         <v>45778</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B143" s="10">
         <v>45809</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B144" s="10">
         <v>45839</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B145" s="10">
         <v>45870</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B146" s="10">
         <v>45901</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B147" s="10">
         <v>45931</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B148" s="10">
         <v>45962</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B149" s="10">
         <v>45992</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B150" s="10">
         <v>46023</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B151" s="10">
         <v>46054</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B152" s="10">
         <v>46082</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B153" s="10">
         <v>46113</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B154" s="10">
         <v>46143</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B155" s="10">
         <v>46174</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B156" s="10">
         <v>46204</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157" s="10">
         <v>46235</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B158" s="10">
         <v>46266</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B159" s="10">
         <v>46296</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B160" s="10">
         <v>46327</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B161" s="10">
         <v>46357</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B162" s="10">
         <v>46388</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B163" s="10">
         <v>46419</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B164" s="10">
         <v>46447</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B165" s="10">
         <v>46478</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" s="10">
         <v>46508</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" s="10">
         <v>46539</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" s="10">
         <v>46569</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" s="10">
         <v>46600</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B170" s="10">
         <v>46631</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B171" s="10">
         <v>46661</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B172" s="10">
         <v>46692</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B173" s="10">
         <v>46722</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B174" s="10">
         <v>46753</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B175" s="10">
         <v>46784</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B176" s="10">
         <v>46813</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B177" s="10">
         <v>46844</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B178" s="10">
         <v>46874</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B179" s="10">
         <v>46905</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B180" s="10">
         <v>46935</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B181" s="10">
         <v>46966</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B182" s="10">
         <v>46997</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B183" s="10">
         <v>47027</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B184" s="10">
         <v>47058</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B185" s="10">
         <v>47088</v>
@@ -4431,16 +4431,16 @@
         <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -4452,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -4466,13 +4466,13 @@
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="10">
         <v>41518</v>
@@ -4481,10 +4481,10 @@
         <v>42614</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -4498,21 +4498,21 @@
         <v>9.189982</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="10">
         <v>42979</v>
@@ -4521,13 +4521,13 @@
         <v>43282</v>
       </c>
       <c r="F3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="13" t="str">
         <f>"42.596796"</f>
@@ -4538,18 +4538,18 @@
         <v>-5.572945</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="10">
         <v>42614</v>
@@ -4558,10 +4558,10 @@
         <v>43525</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>4</v>
@@ -4575,15 +4575,15 @@
         <v>9.189982</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="6" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="7" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="8" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
@@ -4724,7 +4724,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>"48.8575"</f>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="9" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -4947,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E958DC3-3ED4-8E47-BF1A-FEFD3D4117EB}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4964,7 +4964,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
@@ -4976,7 +4976,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -4984,10 +4984,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>31</v>
@@ -5001,10 +5001,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>31</v>
@@ -5018,10 +5018,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>31</v>
@@ -5035,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>30</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -5252,22 +5252,23 @@
         <v>31</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5277,7 +5278,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -5295,33 +5296,31 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20">
+      <c r="A20" s="14">
+        <v>4</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="14">
         <v>1</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>31</v>
@@ -5331,47 +5330,49 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>6</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1</v>
-      </c>
+      <c r="A22" s="3">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -5387,35 +5388,33 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -5423,33 +5422,33 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5460,10 +5459,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -5480,10 +5479,10 @@
         <v>304</v>
       </c>
       <c r="C30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5491,13 +5490,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -5508,13 +5507,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -5528,44 +5527,44 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -5576,13 +5575,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -5593,16 +5592,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
         <v>302</v>
       </c>
       <c r="C37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5610,16 +5609,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -5627,7 +5626,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -5644,7 +5643,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -5656,15 +5655,15 @@
         <v>31</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
@@ -5673,12 +5672,12 @@
         <v>31</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>6</v>
+      <c r="A42">
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
@@ -5690,15 +5689,15 @@
         <v>31</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>8</v>
+      <c r="A43" s="3">
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
@@ -5707,15 +5706,15 @@
         <v>31</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
@@ -5728,11 +5727,11 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>6</v>
+      <c r="A45">
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
@@ -5741,21 +5740,21 @@
         <v>31</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>8</v>
+      <c r="A46" s="3">
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -5763,19 +5762,19 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E47">
-        <v>2</v>
+      <c r="E47" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -5783,10 +5782,10 @@
         <v>7</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>34</v>
@@ -5797,24 +5796,24 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>7</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="5">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
@@ -5831,7 +5830,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
@@ -5843,32 +5842,32 @@
         <v>31</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
         <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
         <v>46</v>
@@ -5877,15 +5876,15 @@
         <v>34</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
         <v>46</v>
@@ -5894,12 +5893,12 @@
         <v>34</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
@@ -5916,10 +5915,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
         <v>46</v>
@@ -5933,7 +5932,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
@@ -5950,35 +5949,18 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59">
         <v>1</v>
       </c>
     </row>
@@ -5991,8 +5973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31DC131-E60B-9246-A7B1-E001E7A735FF}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6007,7 +5989,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>51</v>
@@ -6019,10 +6001,10 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6042,7 +6024,7 @@
         <v>2021</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6062,7 +6044,7 @@
         <v>2021</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6087,19 +6069,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
       </c>
       <c r="E5">
         <v>2021</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -6107,10 +6089,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -6119,7 +6101,7 @@
         <v>2021</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -6127,10 +6109,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -6139,7 +6121,7 @@
         <v>2023</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -6147,19 +6129,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
       </c>
       <c r="E8">
         <v>2024</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -6167,10 +6149,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -6179,7 +6161,7 @@
         <v>2022</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -6187,10 +6169,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -6199,7 +6181,7 @@
         <v>2021</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6207,10 +6189,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -6219,7 +6201,7 @@
         <v>2024</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -6227,19 +6209,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>2025</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
